--- a/Altium/JLCPCB 0402 Capacitors.DbLib.xlsx
+++ b/Altium/JLCPCB 0402 Capacitors.DbLib.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="924" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1254" uniqueCount="156">
   <si>
     <t>Comment</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>Passives.SchLib</t>
+  </si>
+  <si>
+    <t>Dielectric</t>
+  </si>
+  <si>
+    <t>C0G</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>X5R</t>
   </si>
 </sst>
 </file>
@@ -846,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
@@ -859,15 +871,16 @@
     <col min="3" max="3" width="14.28515625" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
-    <col min="6" max="6" width="8" customWidth="true"/>
-    <col min="7" max="7" width="36.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
-    <col min="9" max="9" width="10" customWidth="true"/>
-    <col min="10" max="10" width="21.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true"/>
-    <col min="12" max="12" width="12.85546875" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="9.5703125" customWidth="true"/>
+    <col min="7" max="7" width="8" customWidth="true"/>
+    <col min="8" max="8" width="36.28515625" customWidth="true"/>
+    <col min="9" max="9" width="26.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10" customWidth="true"/>
+    <col min="11" max="11" width="21.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="12.85546875" customWidth="true"/>
+    <col min="14" max="14" width="14.85546875" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
@@ -887,30 +900,33 @@
         <v>65</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>128</v>
       </c>
     </row>
@@ -931,30 +947,33 @@
         <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -975,30 +994,33 @@
         <v>67</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L3" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1019,30 +1041,33 @@
         <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L4" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1063,30 +1088,33 @@
         <v>67</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L5" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1107,30 +1135,33 @@
         <v>67</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1151,30 +1182,33 @@
         <v>67</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L7" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1195,30 +1229,33 @@
         <v>67</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L8" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N8" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1239,30 +1276,33 @@
         <v>67</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L9" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1283,30 +1323,33 @@
         <v>67</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L10" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1327,30 +1370,33 @@
         <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L11" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1371,30 +1417,33 @@
         <v>66</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L12" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1415,30 +1464,33 @@
         <v>66</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L13" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1459,30 +1511,33 @@
         <v>66</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L14" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1503,30 +1558,33 @@
         <v>66</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1547,30 +1605,33 @@
         <v>66</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J16" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1591,30 +1652,33 @@
         <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1635,30 +1699,33 @@
         <v>66</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L18" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1679,30 +1746,33 @@
         <v>66</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L19" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1723,30 +1793,33 @@
         <v>68</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1767,30 +1840,33 @@
         <v>68</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L21" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1811,30 +1887,33 @@
         <v>68</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="J22" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="L22" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N22" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>151</v>
       </c>
     </row>
